--- a/2020/RESE412/Project_1/data/week_data.xlsx
+++ b/2020/RESE412/Project_1/data/week_data.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\uni\2020\RESE412\Project_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D8AA339-C232-443B-8AAC-35478BEF1691}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{24E6FC07-4CA2-4D17-9AE5-145AE4577881}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="32295" yWindow="8445" windowWidth="19305" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="resource_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="house_req" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>NIWA SolarView Calculations</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Tilted Irr.</t>
   </si>
   <si>
-    <t xml:space="preserve">Average </t>
-  </si>
-  <si>
     <t>¡C</t>
   </si>
   <si>
@@ -95,17 +92,29 @@
     <t>W/m2</t>
   </si>
   <si>
-    <t>Peak</t>
+    <t>peak sun plot</t>
   </si>
   <si>
-    <t>peak sun plot</t>
+    <t xml:space="preserve">Average Solar irradience </t>
+  </si>
+  <si>
+    <t>Average Peak Hours</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>daily usage (kWh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +245,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -582,7 +600,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="18" applyFont="1"/>
@@ -591,6 +609,9 @@
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="30" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="34" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="38" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -948,76 +969,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>44041</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>89.535714290000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>2.1488571429999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>-41.33</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>174.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>2.1488571429999999</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>2.1488571429999999</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1028,7 +1092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1036,7 +1100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1058,28 +1122,22 @@
       <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14">
-        <v>89.535714290000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1101,11 +1159,8 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1127,11 +1182,8 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>2.1488571429999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1154,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1176,11 +1228,8 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1202,14 +1251,8 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1231,14 +1274,8 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1260,14 +1297,8 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>2.1488571429999999</v>
-      </c>
-      <c r="J21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1289,14 +1320,8 @@
       <c r="G22" s="2">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>2.1488571429999999</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1319,7 +1344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1342,7 +1367,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1365,7 +1390,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1388,7 +1413,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1411,7 +1436,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1434,7 +1459,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1457,7 +1482,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1480,7 +1505,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1503,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -4984,12 +5009,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>19.86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2020/RESE412/Project_1/data/week_data.xlsx
+++ b/2020/RESE412/Project_1/data/week_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\uni\2020\RESE412\Project_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{24E6FC07-4CA2-4D17-9AE5-145AE4577881}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466C4F7B-3FE1-4B8F-AF7C-71ABA061F6BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32295" yWindow="8445" windowWidth="19305" windowHeight="11505" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resource_data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>NIWA SolarView Calculations</t>
   </si>
@@ -109,11 +109,26 @@
   <si>
     <t>daily usage (kWh)</t>
   </si>
+  <si>
+    <t>$/W</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>$/Ahr</t>
+  </si>
+  <si>
+    <t>Peak Hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -966,11 +981,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5008,62 +5023,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>17.95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>17.88</v>
+      </c>
+      <c r="D3">
+        <v>2.1488571429999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="10">
-        <v>19.86</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>19.78</v>
+      </c>
+      <c r="D4">
+        <v>2.1488571429999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>15.67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>2.1488571429999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>39.049999999999997</v>
+        <v>39.590000000000003</v>
+      </c>
+      <c r="D6">
+        <v>2.1488571429999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>

--- a/2020/RESE412/Project_1/data/week_data.xlsx
+++ b/2020/RESE412/Project_1/data/week_data.xlsx
@@ -8,20 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\uni\2020\RESE412\Project_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466C4F7B-3FE1-4B8F-AF7C-71ABA061F6BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA8DDE6-8EF6-47DC-9747-96F6921E352F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="10950" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resource_data" sheetId="1" r:id="rId1"/>
     <sheet name="house_req" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>NIWA SolarView Calculations</t>
   </si>
@@ -124,12 +132,42 @@
   <si>
     <t>Peak Hrs</t>
   </si>
+  <si>
+    <t>storage (Ahr)</t>
+  </si>
+  <si>
+    <t>PV (kW)</t>
+  </si>
+  <si>
+    <t>PV cost ($)</t>
+  </si>
+  <si>
+    <t>storage cost ($)</t>
+  </si>
+  <si>
+    <t>Turbine (kW)</t>
+  </si>
+  <si>
+    <t>turbine cost ($)</t>
+  </si>
+  <si>
+    <t>Total cost ($)</t>
+  </si>
+  <si>
+    <t>Initial Solar</t>
+  </si>
+  <si>
+    <t>Initial Wind</t>
+  </si>
+  <si>
+    <t>unserviced (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +307,23 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -615,7 +670,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="18" applyFont="1"/>
@@ -626,7 +681,15 @@
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="38" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="36"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -984,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="B172" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,114 +5087,418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:D19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>6.64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="B8" s="10">
         <v>17.88</v>
       </c>
-      <c r="D3">
+      <c r="C8" s="10">
         <v>2.1488571429999999</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="D8" s="10">
+        <f>B8/C8</f>
+        <v>8.3207020337507842</v>
+      </c>
+      <c r="E8" s="10">
+        <f>(D8*1000)*B$3</f>
+        <v>21633.825287752039</v>
+      </c>
+      <c r="F8" s="10">
+        <f>(B8*1000)/240</f>
+        <v>74.5</v>
+      </c>
+      <c r="G8" s="10">
+        <f>F8*D$2</f>
+        <v>417.2</v>
+      </c>
+      <c r="H8" s="10">
+        <f>SUM(E8,G8)</f>
+        <v>22051.02528775204</v>
+      </c>
+      <c r="I8" s="10">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="B9" s="12">
         <v>19.78</v>
       </c>
-      <c r="D4">
+      <c r="C9" s="11">
         <v>2.1488571429999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="D9" s="11">
+        <f t="shared" ref="D9:D11" si="0">B9/C9</f>
+        <v>9.2048929657489111</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" ref="E9:E11" si="1">(D9*1000)*B$3</f>
+        <v>23932.721710947171</v>
+      </c>
+      <c r="F9" s="11">
+        <f>(B9*1000)/240</f>
+        <v>82.416666666666671</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9*D$2</f>
+        <v>461.5333333333333</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" ref="H9:H11" si="2">SUM(E9,G9)</f>
+        <v>24394.255044280504</v>
+      </c>
+      <c r="I9" s="11">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="B10" s="13">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="C10" s="13">
         <v>2.1488571429999999</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>7.4458183747210605</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>19359.127774274759</v>
+      </c>
+      <c r="F10" s="13">
+        <f>(B10*1000)/240</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G10" s="13">
+        <f>F10*D$2</f>
+        <v>373.33333333333331</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="2"/>
+        <v>19732.461107608091</v>
+      </c>
+      <c r="I10" s="13">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B11" s="14">
         <v>39.590000000000003</v>
       </c>
-      <c r="D6">
+      <c r="C11" s="14">
         <v>2.1488571429999999</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>6.64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <v>5.6</v>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>18.423746840950425</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="1"/>
+        <v>47901.74178647111</v>
+      </c>
+      <c r="F11" s="14">
+        <f>(B11*1000)/240</f>
+        <v>164.95833333333334</v>
+      </c>
+      <c r="G11" s="14">
+        <f>F11*D$2</f>
+        <v>923.76666666666665</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="2"/>
+        <v>48825.50845313778</v>
+      </c>
+      <c r="I11" s="14">
+        <v>5.9969999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10">
+        <v>17.88</v>
+      </c>
+      <c r="C16" s="10">
+        <v>9.4382999999999999</v>
+      </c>
+      <c r="D16" s="10">
+        <f>B16/C16</f>
+        <v>1.8944089507644384</v>
+      </c>
+      <c r="E16" s="10">
+        <f>(D16*1000)*B$2</f>
+        <v>12578.875433075871</v>
+      </c>
+      <c r="F16" s="10">
+        <f>(B16*1000)/240</f>
+        <v>74.5</v>
+      </c>
+      <c r="G16" s="10">
+        <f>F16*D$2</f>
+        <v>417.2</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM(E16,G16)</f>
+        <v>12996.075433075872</v>
+      </c>
+      <c r="I16" s="10">
+        <v>4.6719999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12">
+        <v>19.78</v>
+      </c>
+      <c r="C17" s="11">
+        <v>9.4382999999999999</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" ref="D17:D19" si="3">B17/C17</f>
+        <v>2.09571638960406</v>
+      </c>
+      <c r="E17" s="11">
+        <f>(D17*1000)*B$2</f>
+        <v>13915.556826970958</v>
+      </c>
+      <c r="F17" s="11">
+        <f>(B17*1000)/240</f>
+        <v>82.416666666666671</v>
+      </c>
+      <c r="G17" s="11">
+        <f>F17*D$2</f>
+        <v>461.5333333333333</v>
+      </c>
+      <c r="H17" s="11">
+        <f>SUM(E17,G17)</f>
+        <v>14377.090160304291</v>
+      </c>
+      <c r="I17" s="11">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13">
+        <v>9.4382999999999999</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="3"/>
+        <v>1.695220537596813</v>
+      </c>
+      <c r="E18" s="13">
+        <f>(D18*1000)*B$2</f>
+        <v>11256.264369642839</v>
+      </c>
+      <c r="F18" s="13">
+        <f>(B18*1000)/240</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G18" s="13">
+        <f>F18*D$2</f>
+        <v>373.33333333333331</v>
+      </c>
+      <c r="H18" s="13">
+        <f>SUM(E18,G18)</f>
+        <v>11629.597702976173</v>
+      </c>
+      <c r="I18" s="13">
+        <v>7.9059999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>5</v>
+      </c>
+      <c r="B19" s="14">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="C19" s="14">
+        <v>9.4382999999999999</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="3"/>
+        <v>4.1946113177161148</v>
+      </c>
+      <c r="E19" s="14">
+        <f>(D19*1000)*B$2</f>
+        <v>27852.219149635002</v>
+      </c>
+      <c r="F19" s="14">
+        <f>(B19*1000)/240</f>
+        <v>164.95833333333334</v>
+      </c>
+      <c r="G19" s="14">
+        <f>F19*D$2</f>
+        <v>923.76666666666665</v>
+      </c>
+      <c r="H19" s="14">
+        <f>SUM(E19,G19)</f>
+        <v>28775.985816301669</v>
+      </c>
+      <c r="I19" s="14">
+        <v>2.5960000000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A14:I14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2020/RESE412/Project_1/data/week_data.xlsx
+++ b/2020/RESE412/Project_1/data/week_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\uni\2020\RESE412\Project_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA8DDE6-8EF6-47DC-9747-96F6921E352F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA8308F-5939-4EBA-86ED-53E791ED7D6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="10950" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resource_data" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>NIWA SolarView Calculations</t>
   </si>
@@ -162,12 +162,42 @@
   <si>
     <t>unserviced (%)</t>
   </si>
+  <si>
+    <t>Sized Solar</t>
+  </si>
+  <si>
+    <t>Sized Wind</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Distributed</t>
+  </si>
+  <si>
+    <t>Microgrids</t>
+  </si>
+  <si>
+    <t>house 2</t>
+  </si>
+  <si>
+    <t>house 3</t>
+  </si>
+  <si>
+    <t>house 4</t>
+  </si>
+  <si>
+    <t>house 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,15 +328,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -626,7 +647,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -669,8 +690,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="18" applyFont="1"/>
@@ -679,19 +701,35 @@
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="30" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="34" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="38" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="36"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="26" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="26" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="8" fillId="4" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="27" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="28" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -719,6 +757,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -746,6 +785,3073 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tilted Solar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Irradence (June 19th to 25th)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>resource_data!$G$1:$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="12">
+                  <c:v>Tilted Irr.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>W/m2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resource_data!$G$15:$G$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="168"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8242-4CD9-AF2A-1FD49C4E16C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="549435640"/>
+        <c:axId val="549433400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="549435640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> (hours)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549433400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="549433400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>irradience</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>W/m2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549435640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Wind speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> (June 19th to 25th)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>resource_data!$F$1:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="12">
+                  <c:v>Wind speed</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>m/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resource_data!$F$15:$F$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="168"/>
+                <c:pt idx="0">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8675-4F84-A6A7-58817E687E03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="443289784"/>
+        <c:axId val="443286904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="443289784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>tme</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> (hours)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443286904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="443286904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>speed ()m/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443289784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342593</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>122002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>109904</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FABB437-5101-4B59-A988-DD24D7FFD7FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>253825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>157632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>293076</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CAB46F-65B6-4B5A-B538-9143DFC478E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,10 +4151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView topLeftCell="B172" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F182"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +4166,7 @@
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1068,20 +4174,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>44041</v>
       </c>
       <c r="I2">
         <v>89.535714290000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>I4/I2</f>
+        <v>2.4000000000446747E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1092,7 +4202,7 @@
         <v>2.1488571429999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +4213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1117,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +4241,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +4255,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +4280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1178,7 +4288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1201,7 +4311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +4325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1238,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -5082,40 +8192,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -5138,17 +8258,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -5172,7 +8292,7 @@
       <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -5180,153 +8300,156 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>17.88</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>2.1488571429999999</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f>B8/C8</f>
         <v>8.3207020337507842</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="18">
         <f>(D8*1000)*B$3</f>
         <v>21633.825287752039</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f>(B8*1000)/240</f>
         <v>74.5</v>
       </c>
-      <c r="G8" s="10">
-        <f>F8*D$2</f>
-        <v>417.2</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="G8" s="18">
+        <f>(F8*D$2)*2</f>
+        <v>834.4</v>
+      </c>
+      <c r="H8" s="18">
         <f>SUM(E8,G8)</f>
-        <v>22051.02528775204</v>
-      </c>
-      <c r="I8" s="10">
-        <v>12.72</v>
+        <v>22468.22528775204</v>
+      </c>
+      <c r="I8" s="9">
+        <v>12.68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>19.78</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>2.1488571429999999</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f t="shared" ref="D9:D11" si="0">B9/C9</f>
         <v>9.2048929657489111</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="19">
         <f t="shared" ref="E9:E11" si="1">(D9*1000)*B$3</f>
         <v>23932.721710947171</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>(B9*1000)/240</f>
         <v>82.416666666666671</v>
       </c>
-      <c r="G9" s="11">
-        <f>F9*D$2</f>
-        <v>461.5333333333333</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="19">
+        <f>(F9*D$2)*2</f>
+        <v>923.06666666666661</v>
+      </c>
+      <c r="H9" s="19">
         <f t="shared" ref="H9:H11" si="2">SUM(E9,G9)</f>
-        <v>24394.255044280504</v>
-      </c>
-      <c r="I9" s="11">
+        <v>24855.788377613837</v>
+      </c>
+      <c r="I9" s="10">
         <v>15.73</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>16</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>2.1488571429999999</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>7.4458183747210605</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="20">
         <f t="shared" si="1"/>
         <v>19359.127774274759</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f>(B10*1000)/240</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="G10" s="13">
-        <f>F10*D$2</f>
-        <v>373.33333333333331</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="G10" s="20">
+        <f>(F10*D$2)*2</f>
+        <v>746.66666666666663</v>
+      </c>
+      <c r="H10" s="20">
         <f t="shared" si="2"/>
-        <v>19732.461107608091</v>
-      </c>
-      <c r="I10" s="13">
-        <v>15.88</v>
+        <v>20105.794440941427</v>
+      </c>
+      <c r="I10" s="12">
+        <v>15.84</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>39.590000000000003</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>2.1488571429999999</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>18.423746840950425</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="21">
         <f t="shared" si="1"/>
         <v>47901.74178647111</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <f>(B11*1000)/240</f>
         <v>164.95833333333334</v>
       </c>
-      <c r="G11" s="14">
-        <f>F11*D$2</f>
-        <v>923.76666666666665</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="G11" s="21">
+        <f>(F11*D$2)*2</f>
+        <v>1847.5333333333333</v>
+      </c>
+      <c r="H11" s="21">
         <f t="shared" si="2"/>
-        <v>48825.50845313778</v>
-      </c>
-      <c r="I11" s="14">
-        <v>5.9969999999999999</v>
-      </c>
+        <v>49749.275119804443</v>
+      </c>
+      <c r="I11" s="13">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5350,7 +8473,7 @@
       <c r="G15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -5358,145 +8481,634 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>2</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>17.88</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>9.4382999999999999</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <f>B16/C16</f>
         <v>1.8944089507644384</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="18">
         <f>(D16*1000)*B$2</f>
         <v>12578.875433075871</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <f>(B16*1000)/240</f>
         <v>74.5</v>
       </c>
-      <c r="G16" s="10">
-        <f>F16*D$2</f>
-        <v>417.2</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="G16" s="18">
+        <f t="shared" ref="G16:G18" si="3">(F16*D$2)*2</f>
+        <v>834.4</v>
+      </c>
+      <c r="H16" s="18">
         <f>SUM(E16,G16)</f>
-        <v>12996.075433075872</v>
-      </c>
-      <c r="I16" s="10">
+        <v>13413.275433075871</v>
+      </c>
+      <c r="I16" s="9">
         <v>4.6719999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>3</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>19.78</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>9.4382999999999999</v>
       </c>
-      <c r="D17" s="11">
-        <f t="shared" ref="D17:D19" si="3">B17/C17</f>
+      <c r="D17" s="10">
+        <f t="shared" ref="D17:D19" si="4">B17/C17</f>
         <v>2.09571638960406</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="19">
         <f>(D17*1000)*B$2</f>
         <v>13915.556826970958</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f>(B17*1000)/240</f>
         <v>82.416666666666671</v>
       </c>
-      <c r="G17" s="11">
-        <f>F17*D$2</f>
-        <v>461.5333333333333</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="G17" s="19">
+        <f t="shared" si="3"/>
+        <v>923.06666666666661</v>
+      </c>
+      <c r="H17" s="19">
         <f>SUM(E17,G17)</f>
-        <v>14377.090160304291</v>
-      </c>
-      <c r="I17" s="11">
+        <v>14838.623493637624</v>
+      </c>
+      <c r="I17" s="10">
         <v>6.8</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>4</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>16</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>9.4382999999999999</v>
       </c>
-      <c r="D18" s="13">
-        <f t="shared" si="3"/>
+      <c r="D18" s="12">
+        <f t="shared" si="4"/>
         <v>1.695220537596813</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="20">
         <f>(D18*1000)*B$2</f>
         <v>11256.264369642839</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <f>(B18*1000)/240</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="G18" s="13">
-        <f>F18*D$2</f>
-        <v>373.33333333333331</v>
-      </c>
-      <c r="H18" s="13">
+      <c r="G18" s="20">
+        <f t="shared" si="3"/>
+        <v>746.66666666666663</v>
+      </c>
+      <c r="H18" s="20">
         <f>SUM(E18,G18)</f>
-        <v>11629.597702976173</v>
-      </c>
-      <c r="I18" s="13">
+        <v>12002.931036309505</v>
+      </c>
+      <c r="I18" s="12">
         <v>7.9059999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>5</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>39.590000000000003</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>9.4382999999999999</v>
       </c>
-      <c r="D19" s="14">
-        <f t="shared" si="3"/>
+      <c r="D19" s="13">
+        <f t="shared" si="4"/>
         <v>4.1946113177161148</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="21">
         <f>(D19*1000)*B$2</f>
         <v>27852.219149635002</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <f>(B19*1000)/240</f>
         <v>164.95833333333334</v>
       </c>
-      <c r="G19" s="14">
-        <f>F19*D$2</f>
-        <v>923.76666666666665</v>
-      </c>
-      <c r="H19" s="14">
+      <c r="G19" s="21">
+        <f>(F19*D$2)*2</f>
+        <v>1847.5333333333333</v>
+      </c>
+      <c r="H19" s="21">
         <f>SUM(E19,G19)</f>
-        <v>28775.985816301669</v>
-      </c>
-      <c r="I19" s="14">
+        <v>29699.752482968335</v>
+      </c>
+      <c r="I19" s="13">
         <v>2.5960000000000001</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>2</v>
+      </c>
+      <c r="B25" s="9">
+        <v>17.88</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2.1488571429999999</v>
+      </c>
+      <c r="D25" s="9">
+        <v>10</v>
+      </c>
+      <c r="E25" s="18">
+        <f>(D25*1000)*B$3</f>
+        <v>26000</v>
+      </c>
+      <c r="F25" s="23">
+        <v>95</v>
+      </c>
+      <c r="G25" s="18">
+        <f>(F25*D$2)*2</f>
+        <v>1064</v>
+      </c>
+      <c r="H25" s="18">
+        <f>SUM(E25,G25)</f>
+        <v>27064</v>
+      </c>
+      <c r="I25" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>3</v>
+      </c>
+      <c r="B26" s="11">
+        <v>19.78</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2.1488571429999999</v>
+      </c>
+      <c r="D26" s="10">
+        <v>12</v>
+      </c>
+      <c r="E26" s="19">
+        <f>(D26*1000)*B$3</f>
+        <v>31200</v>
+      </c>
+      <c r="F26" s="24">
+        <v>100</v>
+      </c>
+      <c r="G26" s="19">
+        <f>(F26*D$2)*2</f>
+        <v>1120</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" ref="H26:H28" si="5">SUM(E26,G26)</f>
+        <v>32320</v>
+      </c>
+      <c r="I26" s="10">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>4</v>
+      </c>
+      <c r="B27" s="12">
+        <v>16</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2.1488571429999999</v>
+      </c>
+      <c r="D27" s="12">
+        <v>10</v>
+      </c>
+      <c r="E27" s="20">
+        <f>(D27*1000)*B$3</f>
+        <v>26000</v>
+      </c>
+      <c r="F27" s="25">
+        <v>85</v>
+      </c>
+      <c r="G27" s="20">
+        <f>(F27*D$2)*2</f>
+        <v>951.99999999999989</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="5"/>
+        <v>26952</v>
+      </c>
+      <c r="I27" s="12">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>5</v>
+      </c>
+      <c r="B28" s="13">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="C28" s="13">
+        <v>2.1488571429999999</v>
+      </c>
+      <c r="D28" s="13">
+        <v>20</v>
+      </c>
+      <c r="E28" s="21">
+        <f>(D28*1000)*B$3</f>
+        <v>52000</v>
+      </c>
+      <c r="F28" s="26">
+        <v>180</v>
+      </c>
+      <c r="G28" s="21">
+        <f>(F28*D$2)*2</f>
+        <v>2015.9999999999998</v>
+      </c>
+      <c r="H28" s="21">
+        <f t="shared" si="5"/>
+        <v>54016</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>2</v>
+      </c>
+      <c r="B33" s="9">
+        <v>17.88</v>
+      </c>
+      <c r="C33" s="9">
+        <v>9.4382999999999999</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2</v>
+      </c>
+      <c r="E33" s="18">
+        <f>(D33*1000)*B$2</f>
+        <v>13280</v>
+      </c>
+      <c r="F33" s="23">
+        <v>80</v>
+      </c>
+      <c r="G33" s="18">
+        <f>(F33*D$2)*2</f>
+        <v>896</v>
+      </c>
+      <c r="H33" s="18">
+        <f>SUM(E33,G33)</f>
+        <v>14176</v>
+      </c>
+      <c r="I33" s="9">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>3</v>
+      </c>
+      <c r="B34" s="11">
+        <v>19.78</v>
+      </c>
+      <c r="C34" s="10">
+        <v>9.4382999999999999</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="E34" s="19">
+        <f>(D34*1000)*B$2</f>
+        <v>17264</v>
+      </c>
+      <c r="F34" s="24">
+        <v>95</v>
+      </c>
+      <c r="G34" s="19">
+        <f>(F34*D$2)*2</f>
+        <v>1064</v>
+      </c>
+      <c r="H34" s="19">
+        <f>SUM(E34,G34)</f>
+        <v>18328</v>
+      </c>
+      <c r="I34" s="10">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>4</v>
+      </c>
+      <c r="B35" s="12">
+        <v>16</v>
+      </c>
+      <c r="C35" s="12">
+        <v>9.4382999999999999</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="E35" s="20">
+        <f>(D35*1000)*B$2</f>
+        <v>11952</v>
+      </c>
+      <c r="F35" s="25">
+        <v>85</v>
+      </c>
+      <c r="G35" s="20">
+        <f>(F35*D$2)*2</f>
+        <v>951.99999999999989</v>
+      </c>
+      <c r="H35" s="20">
+        <f>SUM(E35,G35)</f>
+        <v>12904</v>
+      </c>
+      <c r="I35" s="12">
+        <v>4.0309999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>5</v>
+      </c>
+      <c r="B36" s="13">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="C36" s="13">
+        <v>9.4382999999999999</v>
+      </c>
+      <c r="D36" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="E36" s="21">
+        <f>(D36*1000)*B$2</f>
+        <v>29880</v>
+      </c>
+      <c r="F36" s="26">
+        <v>165</v>
+      </c>
+      <c r="G36" s="21">
+        <f>(F36*D$2)*2</f>
+        <v>1847.9999999999998</v>
+      </c>
+      <c r="H36" s="21">
+        <f>SUM(E36,G36)</f>
+        <v>31728</v>
+      </c>
+      <c r="I36" s="13">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>SUM(B33:B36)</f>
+        <v>93.25</v>
+      </c>
+      <c r="B44">
+        <f>SUM(D33:D36)</f>
+        <v>10.899999999999999</v>
+      </c>
+      <c r="C44" s="22">
+        <f>(B44*1000)*B$2</f>
+        <v>72375.999999999985</v>
+      </c>
+      <c r="D44">
+        <f>SUM(F33:F36)</f>
+        <v>425</v>
+      </c>
+      <c r="E44" s="22">
+        <f>(D44*D$2)*2</f>
+        <v>4760</v>
+      </c>
+      <c r="F44" s="22">
+        <f>SUM(C44,E44)</f>
+        <v>77135.999999999985</v>
+      </c>
+      <c r="G44" s="14" t="str">
+        <f>"mean: " &amp; AVERAGE(H44:K44)</f>
+        <v>mean: 2.6935</v>
+      </c>
+      <c r="H44" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="I44" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="J44" s="12">
+        <v>3.0840000000000001</v>
+      </c>
+      <c r="K44" s="13">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>88.75</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46" s="22">
+        <f t="shared" ref="C45:C46" si="6">(B46*1000)*B$2</f>
+        <v>66400</v>
+      </c>
+      <c r="D46">
+        <v>400</v>
+      </c>
+      <c r="E46" s="22">
+        <f t="shared" ref="E45:E46" si="7">(D46*D$2)*2</f>
+        <v>4480</v>
+      </c>
+      <c r="F46" s="27">
+        <f>SUM(C46,E46)</f>
+        <v>70880</v>
+      </c>
+      <c r="G46">
+        <v>1.982</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="A42:K42"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2020/RESE412/Project_1/data/week_data.xlsx
+++ b/2020/RESE412/Project_1/data/week_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\uni\2020\RESE412\Project_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA8308F-5939-4EBA-86ED-53E791ED7D6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4412E1B5-E07E-4247-A314-37DAB4ADD295}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>NIWA SolarView Calculations</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Distributed</t>
   </si>
   <si>
-    <t>Microgrids</t>
-  </si>
-  <si>
     <t>house 2</t>
   </si>
   <si>
@@ -197,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +342,15 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -692,7 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="18" applyFont="1"/>
@@ -711,10 +717,6 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="26" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="26" applyAlignment="1"/>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="8" fillId="4" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
@@ -725,7 +727,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="28" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="28" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="28" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8198,10 +8203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:M37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8216,6 +8221,7 @@
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" customWidth="1"/>
@@ -8313,7 +8319,7 @@
         <f>B8/C8</f>
         <v>8.3207020337507842</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <f>(D8*1000)*B$3</f>
         <v>21633.825287752039</v>
       </c>
@@ -8321,11 +8327,11 @@
         <f>(B8*1000)/240</f>
         <v>74.5</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <f>(F8*D$2)*2</f>
         <v>834.4</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <f>SUM(E8,G8)</f>
         <v>22468.22528775204</v>
       </c>
@@ -8347,7 +8353,7 @@
         <f t="shared" ref="D9:D11" si="0">B9/C9</f>
         <v>9.2048929657489111</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <f t="shared" ref="E9:E11" si="1">(D9*1000)*B$3</f>
         <v>23932.721710947171</v>
       </c>
@@ -8355,11 +8361,11 @@
         <f>(B9*1000)/240</f>
         <v>82.416666666666671</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>(F9*D$2)*2</f>
         <v>923.06666666666661</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f t="shared" ref="H9:H11" si="2">SUM(E9,G9)</f>
         <v>24855.788377613837</v>
       </c>
@@ -8381,7 +8387,7 @@
         <f t="shared" si="0"/>
         <v>7.4458183747210605</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <f t="shared" si="1"/>
         <v>19359.127774274759</v>
       </c>
@@ -8389,11 +8395,11 @@
         <f>(B10*1000)/240</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <f>(F10*D$2)*2</f>
         <v>746.66666666666663</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <f t="shared" si="2"/>
         <v>20105.794440941427</v>
       </c>
@@ -8415,7 +8421,7 @@
         <f t="shared" si="0"/>
         <v>18.423746840950425</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <f t="shared" si="1"/>
         <v>47901.74178647111</v>
       </c>
@@ -8423,11 +8429,11 @@
         <f>(B11*1000)/240</f>
         <v>164.95833333333334</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <f>(F11*D$2)*2</f>
         <v>1847.5333333333333</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="19">
         <f t="shared" si="2"/>
         <v>49749.275119804443</v>
       </c>
@@ -8436,7 +8442,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="22"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -8494,7 +8500,7 @@
         <f>B16/C16</f>
         <v>1.8944089507644384</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <f>(D16*1000)*B$2</f>
         <v>12578.875433075871</v>
       </c>
@@ -8502,11 +8508,11 @@
         <f>(B16*1000)/240</f>
         <v>74.5</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <f t="shared" ref="G16:G18" si="3">(F16*D$2)*2</f>
         <v>834.4</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <f>SUM(E16,G16)</f>
         <v>13413.275433075871</v>
       </c>
@@ -8514,7 +8520,7 @@
         <v>4.6719999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>3</v>
       </c>
@@ -8528,7 +8534,7 @@
         <f t="shared" ref="D17:D19" si="4">B17/C17</f>
         <v>2.09571638960406</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <f>(D17*1000)*B$2</f>
         <v>13915.556826970958</v>
       </c>
@@ -8536,11 +8542,11 @@
         <f>(B17*1000)/240</f>
         <v>82.416666666666671</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="17">
         <f t="shared" si="3"/>
         <v>923.06666666666661</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f>SUM(E17,G17)</f>
         <v>14838.623493637624</v>
       </c>
@@ -8548,7 +8554,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>4</v>
       </c>
@@ -8562,7 +8568,7 @@
         <f t="shared" si="4"/>
         <v>1.695220537596813</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <f>(D18*1000)*B$2</f>
         <v>11256.264369642839</v>
       </c>
@@ -8570,11 +8576,11 @@
         <f>(B18*1000)/240</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="18">
         <f t="shared" si="3"/>
         <v>746.66666666666663</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="18">
         <f>SUM(E18,G18)</f>
         <v>12002.931036309505</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>7.9059999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>5</v>
       </c>
@@ -8596,7 +8602,7 @@
         <f t="shared" si="4"/>
         <v>4.1946113177161148</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
         <f>(D19*1000)*B$2</f>
         <v>27852.219149635002</v>
       </c>
@@ -8604,11 +8610,11 @@
         <f>(B19*1000)/240</f>
         <v>164.95833333333334</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="19">
         <f>(F19*D$2)*2</f>
         <v>1847.5333333333333</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="19">
         <f>SUM(E19,G19)</f>
         <v>29699.752482968335</v>
       </c>
@@ -8616,7 +8622,7 @@
         <v>2.5960000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>44</v>
       </c>
@@ -8629,7 +8635,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -8658,7 +8664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>2</v>
       </c>
@@ -8671,18 +8677,18 @@
       <c r="D25" s="9">
         <v>10</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <f>(D25*1000)*B$3</f>
         <v>26000</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="21">
         <v>95</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="16">
         <f>(F25*D$2)*2</f>
         <v>1064</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="16">
         <f>SUM(E25,G25)</f>
         <v>27064</v>
       </c>
@@ -8690,7 +8696,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -8703,18 +8709,18 @@
       <c r="D26" s="10">
         <v>12</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="17">
         <f>(D26*1000)*B$3</f>
         <v>31200</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="17">
         <f>(F26*D$2)*2</f>
         <v>1120</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="17">
         <f t="shared" ref="H26:H28" si="5">SUM(E26,G26)</f>
         <v>32320</v>
       </c>
@@ -8722,7 +8728,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>4</v>
       </c>
@@ -8735,18 +8741,18 @@
       <c r="D27" s="12">
         <v>10</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <f>(D27*1000)*B$3</f>
         <v>26000</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="23">
         <v>85</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <f>(F27*D$2)*2</f>
         <v>951.99999999999989</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="18">
         <f t="shared" si="5"/>
         <v>26952</v>
       </c>
@@ -8754,7 +8760,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>5</v>
       </c>
@@ -8767,26 +8773,30 @@
       <c r="D28" s="13">
         <v>20</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <f>(D28*1000)*B$3</f>
         <v>52000</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="24">
         <v>180</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="19">
         <f>(F28*D$2)*2</f>
         <v>2015.9999999999998</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="19">
         <f t="shared" si="5"/>
         <v>54016</v>
       </c>
       <c r="I28" s="13">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="25">
+        <f>SUM(H25:H28)</f>
+        <v>140352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>45</v>
       </c>
@@ -8799,7 +8809,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -8841,18 +8851,18 @@
       <c r="D33" s="9">
         <v>2</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="16">
         <f>(D33*1000)*B$2</f>
         <v>13280</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="21">
         <v>80</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="16">
         <f>(F33*D$2)*2</f>
         <v>896</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="16">
         <f>SUM(E33,G33)</f>
         <v>14176</v>
       </c>
@@ -8873,18 +8883,18 @@
       <c r="D34" s="10">
         <v>2.6</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <f>(D34*1000)*B$2</f>
         <v>17264</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="22">
         <v>95</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>(F34*D$2)*2</f>
         <v>1064</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="17">
         <f>SUM(E34,G34)</f>
         <v>18328</v>
       </c>
@@ -8905,18 +8915,18 @@
       <c r="D35" s="12">
         <v>1.8</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="18">
         <f>(D35*1000)*B$2</f>
         <v>11952</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="23">
         <v>85</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="18">
         <f>(F35*D$2)*2</f>
         <v>951.99999999999989</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <f>SUM(E35,G35)</f>
         <v>12904</v>
       </c>
@@ -8937,54 +8947,43 @@
       <c r="D36" s="13">
         <v>4.5</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <f>(D36*1000)*B$2</f>
         <v>29880</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="24">
         <v>165</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="19">
         <f>(F36*D$2)*2</f>
         <v>1847.9999999999998</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="19">
         <f>SUM(E36,G36)</f>
         <v>31728</v>
       </c>
       <c r="I36" s="13">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
+      <c r="K36" s="25">
+        <f>SUM(H33:H36)</f>
+        <v>77136</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -9009,16 +9008,16 @@
         <v>43</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -9030,7 +9029,7 @@
         <f>SUM(D33:D36)</f>
         <v>10.899999999999999</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="20">
         <f>(B44*1000)*B$2</f>
         <v>72375.999999999985</v>
       </c>
@@ -9038,11 +9037,11 @@
         <f>SUM(F33:F36)</f>
         <v>425</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="20">
         <f>(D44*D$2)*2</f>
         <v>4760</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="20">
         <f>SUM(C44,E44)</f>
         <v>77135.999999999985</v>
       </c>
@@ -9064,46 +9063,68 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>88.75</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>10</v>
       </c>
-      <c r="C46" s="22">
-        <f t="shared" ref="C45:C46" si="6">(B46*1000)*B$2</f>
+      <c r="C47" s="20">
+        <f>(B47*1000)*B$2</f>
         <v>66400</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>400</v>
       </c>
-      <c r="E46" s="22">
-        <f t="shared" ref="E45:E46" si="7">(D46*D$2)*2</f>
+      <c r="E47" s="20">
+        <f>(D47*D$2)*2</f>
         <v>4480</v>
       </c>
-      <c r="F46" s="27">
-        <f>SUM(C46,E46)</f>
+      <c r="F47" s="25">
+        <f>SUM(C47,E47)</f>
         <v>70880</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>1.982</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A45:G45"/>
-    <mergeCell ref="F41:K41"/>
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A14:I14"/>
